--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_297.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_297.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2003577817531306</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0485006518904824</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(97.64, 111.0)]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(33.94, 38.62)]</t>
+          <t>[('0:00:06.840000', '0:00:12.460000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:15.790000', '0:00:20.070000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.506, 8.175)]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.52, 22.52)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:05.640000', '0:01:10.540000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3541666666666666</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.271978021978022</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>[['C', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
+          <t>[['A', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:31.527551', '0:00:47.026870')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:18.651995', '0:00:24.735623')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4689655172413794</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1958333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['Bb', 'F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.413696, 12.303038)]</t>
+          <t>[['F', 'C/3', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(132.3, 137.48)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:30.621882', '0:00:36.693900')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:16.184070', '0:00:24.470647')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'F:7', 'Bb'], ['G', 'C', 'F'], ['F', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.737518, 22.996837), (7.265318, 12.547858), (0.440395, 5.558652)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.84, 26.98), (200.52, 203.86), (0.74, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1709090909090909</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Bb:min7', 'Eb:7', 'Ab/3']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:min7', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(22.57, 30.01)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(38.371, 44.64)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4487804878048781</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7', 'D/6']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(40.59, 46.47)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.756394)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B'], ['E', 'F#', 'B'], ['B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'C'], ['F/3', 'G/3', 'C'], ['C/3', 'F', 'C/3']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(54.178526, 61.620521), (26.48873, 32.328548), (58.625147, 64.604285)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.870746, 26.837029), (135.871449, 138.80365), (76.585782, 78.06481)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4377880184331797</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(58.32, 61.68)]</t>
+          <t>[['D', 'A', 'E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.34, 24.96)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:40.421065', '0:01:48.362290')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1326086956521739</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(127.6, 132.4)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1601351351351351</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.82, 16.26)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07664835164835165</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.014823, 12.241493)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.82, 53.46), (41.96, 51.36), (48.48, 60.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.94, 27.52), (62.0, 67.1), (20.78, 25.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
